--- a/biology/Botanique/Allium_suaveolens/Allium_suaveolens.xlsx
+++ b/biology/Botanique/Allium_suaveolens/Allium_suaveolens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium suaveolens est une espèce végétale herbacée monocotylédone de la famille des Amaryllidacées. Elle est également connue sous le nom d'ail odorant[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium suaveolens est une espèce végétale herbacée monocotylédone de la famille des Amaryllidacées. Elle est également connue sous le nom d'ail odorant.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'allium suaveolens peut mesurer jusqu'à 40 cm de haut[4].
-Elle fleurit de juillet à septembre[5] et produit alors des fleurs se développant en ombelle[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'allium suaveolens peut mesurer jusqu'à 40 cm de haut.
+Elle fleurit de juillet à septembre et produit alors des fleurs se développant en ombelle.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ail odorant est largement observé en Europe centrale. On retrouve parfois cette plante dans certaines zones d'Europe du Sud, comme les Balkans, l'Espagne et Andorre.
-Selon l'Inventaire national du patrimoine naturel, certaines observation de cette espèces auraient également été recensées aux États-Unis[7]. 
+Selon l'Inventaire national du patrimoine naturel, certaines observation de cette espèces auraient également été recensées aux États-Unis. 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (14 octobre 2023)[8] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (14 octobre 2023) (Attention liste brute contenant possiblement des synonymes) :
 Allium suaveolens subsp. serotinum (Lapeyr.) Nyman
 Allium suaveolens var. appendiculatum (Ramond ex Pers.) Nyman</t>
         </is>
